--- a/data/BNTAS (TRY).xlsx
+++ b/data/BNTAS (TRY).xlsx
@@ -6393,6 +6393,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>1188546127</v>
+      </c>
       <c r="C5">
         <v>855356260.3890241</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>274044391.972958</v>
       </c>
       <c r="F5">
-        <v>1240868425.1506438</v>
+        <v>1294911031</v>
       </c>
       <c r="G5">
         <v>953520089.6873771</v>
@@ -6449,6 +6452,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>151251102</v>
+      </c>
       <c r="C6">
         <v>108495001.76981308</v>
       </c>
@@ -6459,7 +6465,7 @@
         <v>34171174.97785242</v>
       </c>
       <c r="F6">
-        <v>162140945.4853812</v>
+        <v>169202548</v>
       </c>
       <c r="G6">
         <v>137017843.49362084</v>
@@ -9463,6 +9469,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>333189866.61097586</v>
+      </c>
       <c r="C5">
         <v>280599760.2086221</v>
       </c>
@@ -9473,7 +9482,7 @@
         <v>274044391.972958</v>
       </c>
       <c r="F5">
-        <v>287348335.46326673</v>
+        <v>341390941.3126229</v>
       </c>
       <c r="G5">
         <v>295189287.2856779</v>
@@ -9513,6 +9522,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>42756100.230186924</v>
+      </c>
       <c r="C6">
         <v>45424186.025964566</v>
       </c>
@@ -9523,7 +9535,7 @@
         <v>34171174.97785242</v>
       </c>
       <c r="F6">
-        <v>25123101.991760343</v>
+        <v>32184704.506379157</v>
       </c>
       <c r="G6">
         <v>40110705.73447622</v>
@@ -12407,17 +12419,20 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>1188546127</v>
+      </c>
       <c r="C5">
-        <v>1142704595.8522909</v>
+        <v>1196747201.701647</v>
       </c>
       <c r="D5">
-        <v>1157294122.9293466</v>
+        <v>1211336728.7787027</v>
       </c>
       <c r="E5">
-        <v>1161463287.3844497</v>
+        <v>1215505893.233806</v>
       </c>
       <c r="F5">
-        <v>1240868425.1506438</v>
+        <v>1294911031</v>
       </c>
       <c r="G5">
         <v>1386115922.7022138</v>
@@ -12445,17 +12460,20 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>151251102</v>
+      </c>
       <c r="C6">
-        <v>133618103.76157342</v>
+        <v>140679706.27619225</v>
       </c>
       <c r="D6">
-        <v>128304623.47008508</v>
+        <v>135366225.9847039</v>
       </c>
       <c r="E6">
-        <v>139073925.94569463</v>
+        <v>146135528.46031344</v>
       </c>
       <c r="F6">
-        <v>162140945.4853812</v>
+        <v>169202548</v>
       </c>
       <c r="G6">
         <v>194212813.23706397</v>
